--- a/ros.xlsx
+++ b/ros.xlsx
@@ -5,22 +5,33 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="217" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>ROS</t>
-  </si>
-  <si>
-    <r>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t xml:space="preserve">ROS</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">Ubuntu14.04 </t>
     </r>
     <r>
@@ -88,13 +99,21 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Velodyne </t>
-    </r>
-    <r>
       <rPr>
         <b val="true"/>
         <i val="true"/>
         <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Velodyne </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="10"/>
         <rFont val="TakaoPGothic"/>
         <family val="2"/>
         <charset val="1"/>
@@ -103,7 +122,7 @@
     </r>
   </si>
   <si>
-    <t>$ sudo apt-get install libpcap-dev git
+    <t xml:space="preserve">$ sudo apt-get install libpcap-dev git
 $ mkdir -p ~/ros_drivers/src
 $ cd ~/ros_drivers/src
 $ catkin_init_workspace
@@ -112,15 +131,23 @@
 $ catkin_make
 $ source devel/setup.bash</t>
   </si>
+  <si>
+    <t xml:space="preserve">ubuntu16 chrome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ sudo apt-get install libappindicator1  
+$ sudo dpkg -i google-chrome-stable_current_amd64.deb 
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="TakaoPGothic"/>
@@ -146,11 +173,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -170,12 +192,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -212,7 +240,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -221,6 +249,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -229,11 +261,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -254,16 +290,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="92.6126126126126"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.1711711711712"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="92.1261261261261"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.58108108108108"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -293,6 +329,16 @@
     <row r="8" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="7" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
